--- a/data/trans_orig/P15A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>22782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14663</v>
+        <v>14797</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34721</v>
+        <v>34702</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03282588471363821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02112840081654538</v>
+        <v>0.02132090849430035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05003000900150205</v>
+        <v>0.05000201701761253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>15867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8955</v>
+        <v>10001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25240</v>
+        <v>25761</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02305086591270728</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01300889675340583</v>
+        <v>0.01452913851155894</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03666760797273846</v>
+        <v>0.0374237619369474</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -786,19 +786,19 @@
         <v>38649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27501</v>
+        <v>28644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52688</v>
+        <v>52434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02795839079486944</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01989435842924562</v>
+        <v>0.02072136360056616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03811445141730184</v>
+        <v>0.03793067339964616</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>671230</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>659291</v>
+        <v>659310</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>679349</v>
+        <v>679215</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9671741152863618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9499699909984978</v>
+        <v>0.9499979829823875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9788715991834546</v>
+        <v>0.9786790915056996</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>680</v>
@@ -836,19 +836,19 @@
         <v>672484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>663111</v>
+        <v>662590</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>679396</v>
+        <v>678350</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9769491340872927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9633323920272615</v>
+        <v>0.9625762380630526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9869911032465941</v>
+        <v>0.9854708614884411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1340</v>
@@ -857,19 +857,19 @@
         <v>1343714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1329675</v>
+        <v>1329929</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1354862</v>
+        <v>1353719</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9720416092051306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9618855485826983</v>
+        <v>0.9620693266003538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9801056415707549</v>
+        <v>0.9792786363994339</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>42780</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30168</v>
+        <v>29870</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57140</v>
+        <v>56506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04447864954207553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03136589292118705</v>
+        <v>0.0310563582177821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05940941310898894</v>
+        <v>0.05875011451438666</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -982,19 +982,19 @@
         <v>30135</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20446</v>
+        <v>20409</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42604</v>
+        <v>42410</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03111886844542969</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02111342516476012</v>
+        <v>0.02107541339262045</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.043994266687667</v>
+        <v>0.04379387983767907</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -1003,19 +1003,19 @@
         <v>72915</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57259</v>
+        <v>55830</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90929</v>
+        <v>90540</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03777594217173744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0296650843550545</v>
+        <v>0.02892474155329957</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04710855670947463</v>
+        <v>0.04690701932552816</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>919020</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>904660</v>
+        <v>905294</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>931632</v>
+        <v>931930</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9555213504579244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9405905868910108</v>
+        <v>0.9412498854856132</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9686341070788128</v>
+        <v>0.9689436417822178</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>880</v>
@@ -1053,19 +1053,19 @@
         <v>938258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>925789</v>
+        <v>925983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>947947</v>
+        <v>947984</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9688811315545703</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9560057333123331</v>
+        <v>0.9562061201623211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9788865748352399</v>
+        <v>0.9789245866073796</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1737</v>
@@ -1074,19 +1074,19 @@
         <v>1857278</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1839264</v>
+        <v>1839653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1872934</v>
+        <v>1874363</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9622240578282626</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9528914432905248</v>
+        <v>0.9530929806744716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9703349156449453</v>
+        <v>0.9710752584467002</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>23806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15207</v>
+        <v>15087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35939</v>
+        <v>35163</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0350851634639642</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02241291523165236</v>
+        <v>0.0222348336297098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05296757938113737</v>
+        <v>0.05182330856049782</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1199,19 +1199,19 @@
         <v>24114</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15485</v>
+        <v>15647</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35226</v>
+        <v>35709</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03526294074316248</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02264347163867595</v>
+        <v>0.02288144688893335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05151238392212758</v>
+        <v>0.05221816670456397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -1220,19 +1220,19 @@
         <v>47920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35508</v>
+        <v>35692</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64097</v>
+        <v>63416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03517440000609618</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02606354082894981</v>
+        <v>0.02619850558851083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04704884161296263</v>
+        <v>0.04654897781402915</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>654703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>642570</v>
+        <v>643346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663302</v>
+        <v>663422</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9649148365360358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9470324206188626</v>
+        <v>0.9481766914395018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9775870847683477</v>
+        <v>0.9777651663702902</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>672</v>
@@ -1270,19 +1270,19 @@
         <v>659727</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>648615</v>
+        <v>648132</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>668356</v>
+        <v>668194</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9647370592568375</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9484876160778721</v>
+        <v>0.9477818332954359</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.977356528361324</v>
+        <v>0.9771185531110662</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1290</v>
@@ -1291,19 +1291,19 @@
         <v>1314430</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1298253</v>
+        <v>1298934</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1326842</v>
+        <v>1326658</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9648255999939038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9529511583870373</v>
+        <v>0.9534510221859708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9739364591710502</v>
+        <v>0.9738014944114891</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>33710</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23592</v>
+        <v>24266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46116</v>
+        <v>46015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03577719740707379</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02503887778135263</v>
+        <v>0.02575441684442713</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04894371153115732</v>
+        <v>0.04883708478940083</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>23689</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14841</v>
+        <v>14831</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35179</v>
+        <v>35749</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02280846794992833</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01428885156651757</v>
+        <v>0.01428006309677088</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03387164212125205</v>
+        <v>0.03441959737188816</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1437,19 +1437,19 @@
         <v>57399</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45093</v>
+        <v>44138</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74836</v>
+        <v>73816</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02897729524388417</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0227646897871806</v>
+        <v>0.02228258448167728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03778022925255381</v>
+        <v>0.03726491358847529</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>908512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>896106</v>
+        <v>896207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>918630</v>
+        <v>917956</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9642228025929263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9510562884688426</v>
+        <v>0.9511629152105991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9749611222186474</v>
+        <v>0.9742455831555727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>975</v>
@@ -1487,19 +1487,19 @@
         <v>1014923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1003433</v>
+        <v>1002863</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1023771</v>
+        <v>1023781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9771915320500717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9661283578787478</v>
+        <v>0.9655804026281118</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9857111484334824</v>
+        <v>0.9857199369032291</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1935</v>
@@ -1508,19 +1508,19 @@
         <v>1923435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1905998</v>
+        <v>1907018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1935741</v>
+        <v>1936696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9710227047561159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9622197707474461</v>
+        <v>0.9627350864115247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9772353102128193</v>
+        <v>0.9777174155183227</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>123077</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102176</v>
+        <v>103904</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>148039</v>
+        <v>149050</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03756299990216581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03118408752751014</v>
+        <v>0.03171136369708693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04518144908536175</v>
+        <v>0.04548993550447905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -1633,19 +1633,19 @@
         <v>93806</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74263</v>
+        <v>76541</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113321</v>
+        <v>116262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02775978291489749</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02197660683752431</v>
+        <v>0.02265076232825085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03353484582512958</v>
+        <v>0.03440526181672535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>209</v>
@@ -1654,19 +1654,19 @@
         <v>216883</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>189300</v>
+        <v>188045</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250854</v>
+        <v>248478</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03258579206000368</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02844166590762844</v>
+        <v>0.02825312315176922</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03768988355623194</v>
+        <v>0.03733294285164939</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3153466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3128504</v>
+        <v>3127493</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3174367</v>
+        <v>3172639</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9624370000978342</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9548185509146384</v>
+        <v>0.954510064495521</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9688159124724904</v>
+        <v>0.9682886363029128</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3207</v>
@@ -1704,19 +1704,19 @@
         <v>3285391</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3265876</v>
+        <v>3262935</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3304934</v>
+        <v>3302656</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9722402170851026</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9664651541748703</v>
+        <v>0.9655947381832752</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9780233931624757</v>
+        <v>0.9773492376717494</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6302</v>
@@ -1725,19 +1725,19 @@
         <v>6438858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6404887</v>
+        <v>6407263</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6466441</v>
+        <v>6467696</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9674142079399963</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9623101164437681</v>
+        <v>0.9626670571483505</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9715583340923715</v>
+        <v>0.9717468768482306</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>14144</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8657</v>
+        <v>7842</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24020</v>
+        <v>21762</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02010661652661758</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01230678572852789</v>
+        <v>0.01114711112229528</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03414555806474105</v>
+        <v>0.03093481876075324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2090,19 +2090,19 @@
         <v>24677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15943</v>
+        <v>16122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39124</v>
+        <v>37637</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0354023751593472</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0228714605718478</v>
+        <v>0.0231287114559454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05612818277995379</v>
+        <v>0.05399533157930656</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -2111,19 +2111,19 @@
         <v>38822</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26869</v>
+        <v>28428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53047</v>
+        <v>52931</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02771944342216641</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01918498832734071</v>
+        <v>0.0202980130480699</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03787656738221886</v>
+        <v>0.03779369632477001</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>689325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>679449</v>
+        <v>681707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>694812</v>
+        <v>695627</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9798933834733824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.965854441935259</v>
+        <v>0.9690651812392468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9876932142714723</v>
+        <v>0.9888528888777046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>628</v>
@@ -2161,19 +2161,19 @@
         <v>672373</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>657926</v>
+        <v>659413</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>681107</v>
+        <v>680928</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9645976248406528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9438718172200462</v>
+        <v>0.9460046684206936</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.977128539428152</v>
+        <v>0.9768712885440547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1287</v>
@@ -2182,19 +2182,19 @@
         <v>1361697</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1347472</v>
+        <v>1347588</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1373650</v>
+        <v>1372091</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9722805565778336</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9621234326177811</v>
+        <v>0.9622063036752301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9808150116726592</v>
+        <v>0.9797019869519302</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>29860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20284</v>
+        <v>21017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42182</v>
+        <v>44748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02933391590357505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01992686594238816</v>
+        <v>0.02064643641766456</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04143872794043364</v>
+        <v>0.04395877877262836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -2307,19 +2307,19 @@
         <v>28455</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19904</v>
+        <v>19875</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39400</v>
+        <v>41253</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02756796322765019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01928302088445178</v>
+        <v>0.01925534729343112</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03817187128921899</v>
+        <v>0.03996657630542793</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -2328,19 +2328,19 @@
         <v>58316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44366</v>
+        <v>45090</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76426</v>
+        <v>76168</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02844480784805242</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02164080536042836</v>
+        <v>0.02199362017602573</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03727844099155082</v>
+        <v>0.03715285215462548</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>988087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>975765</v>
+        <v>973199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>997663</v>
+        <v>996930</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.970666084096425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9585612720595663</v>
+        <v>0.9560412212273716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9800731340576119</v>
+        <v>0.9793535635823352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>913</v>
@@ -2378,19 +2378,19 @@
         <v>1003729</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>992784</v>
+        <v>990931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1012280</v>
+        <v>1012309</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9724320367723498</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.961828128710781</v>
+        <v>0.9600334236945721</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9807169791155482</v>
+        <v>0.980744652706569</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1822</v>
@@ -2399,19 +2399,19 @@
         <v>1991815</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1973705</v>
+        <v>1973963</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2005765</v>
+        <v>2005041</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9715551921519476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9627215590084491</v>
+        <v>0.9628471478453745</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9783591946395715</v>
+        <v>0.9780063798239742</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>19714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12180</v>
+        <v>11771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30805</v>
+        <v>29486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02602116081692371</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01607683481179488</v>
+        <v>0.01553647135459066</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04065999507803355</v>
+        <v>0.03891954864227483</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -2524,19 +2524,19 @@
         <v>21238</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12734</v>
+        <v>12794</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34057</v>
+        <v>32376</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02732748541376886</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0163856233954955</v>
+        <v>0.01646236374030571</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04382168296886248</v>
+        <v>0.04165897391000893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -2545,19 +2545,19 @@
         <v>40952</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29743</v>
+        <v>29186</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56449</v>
+        <v>56795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02668264328552294</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01937919861731142</v>
+        <v>0.01901617434243646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03677952804018248</v>
+        <v>0.03700472871862324</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>737909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>726818</v>
+        <v>728137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>745443</v>
+        <v>745852</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9739788391830763</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9593400049219661</v>
+        <v>0.9610804513577247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9839231651882048</v>
+        <v>0.9844635286454092</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>686</v>
@@ -2595,19 +2595,19 @@
         <v>755936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>743117</v>
+        <v>744798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764440</v>
+        <v>764380</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9726725145862312</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9561783170311376</v>
+        <v>0.9583410260899911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9836143766045046</v>
+        <v>0.9835376362596944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1356</v>
@@ -2616,19 +2616,19 @@
         <v>1493845</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1478348</v>
+        <v>1478002</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1505054</v>
+        <v>1505611</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9733173567144771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9632204719598175</v>
+        <v>0.9629952712813769</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9806208013826891</v>
+        <v>0.9809838256575637</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>34596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23917</v>
+        <v>24079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49754</v>
+        <v>47194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03650361347746228</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02523545376929434</v>
+        <v>0.02540677765443046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05249780638818171</v>
+        <v>0.04979611408278985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -2741,19 +2741,19 @@
         <v>23961</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14812</v>
+        <v>14978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36629</v>
+        <v>34532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02277834486342893</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01408125453655822</v>
+        <v>0.01423852588668075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03482206974285581</v>
+        <v>0.03282851147212578</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -2762,19 +2762,19 @@
         <v>58556</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43944</v>
+        <v>43985</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75170</v>
+        <v>75411</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02928350328333294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0219757338269019</v>
+        <v>0.02199663732113728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0375917847173909</v>
+        <v>0.03771216740292931</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>913143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>897985</v>
+        <v>900545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923822</v>
+        <v>923660</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9634963865225378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9475021936118184</v>
+        <v>0.9502038859172102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9747645462307056</v>
+        <v>0.9745932223455696</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>981</v>
@@ -2812,19 +2812,19 @@
         <v>1027940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1015272</v>
+        <v>1017369</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1037089</v>
+        <v>1036923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9772216551365711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9651779302571442</v>
+        <v>0.9671714885278744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9859187454634414</v>
+        <v>0.9857614741133193</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1858</v>
@@ -2833,19 +2833,19 @@
         <v>1941084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1924470</v>
+        <v>1924229</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1955696</v>
+        <v>1955655</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.970716496716667</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9624082152826091</v>
+        <v>0.9622878325970707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9780242661730981</v>
+        <v>0.9780033626788627</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>98315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80044</v>
+        <v>80981</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119167</v>
+        <v>119567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02869018174232161</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02335823928493855</v>
+        <v>0.02363167627978024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03477514812714298</v>
+        <v>0.03489191567410645</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -2958,19 +2958,19 @@
         <v>98331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78569</v>
+        <v>80887</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121335</v>
+        <v>119277</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02763425294399035</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02208047845969621</v>
+        <v>0.02273191741739945</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03409911924034233</v>
+        <v>0.03352070841958723</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>184</v>
@@ -2979,19 +2979,19 @@
         <v>196646</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169182</v>
+        <v>169540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>225028</v>
+        <v>226013</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0281522756962545</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02422050038214886</v>
+        <v>0.02427170256393837</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03221545839491034</v>
+        <v>0.0323564847975647</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3328464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3307612</v>
+        <v>3307212</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3346735</v>
+        <v>3345798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9713098182576784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.965224851872857</v>
+        <v>0.9651080843258937</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9766417607150616</v>
+        <v>0.9763683237202199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3208</v>
@@ -3029,19 +3029,19 @@
         <v>3459978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3436974</v>
+        <v>3439032</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3479740</v>
+        <v>3477422</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9723657470560096</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9659008807596577</v>
+        <v>0.966479291580413</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9779195215403038</v>
+        <v>0.9772680825826006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6323</v>
@@ -3050,19 +3050,19 @@
         <v>6788442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6760060</v>
+        <v>6759075</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6815906</v>
+        <v>6815548</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9718477243037454</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9677845416050893</v>
+        <v>0.9676435152024353</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9757794996178509</v>
+        <v>0.9757282974360615</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>16230</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9215</v>
+        <v>9507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25106</v>
+        <v>24931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02405180666871865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01365632479450427</v>
+        <v>0.01408904333897667</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03720509769565613</v>
+        <v>0.03694634823011419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -3415,19 +3415,19 @@
         <v>18852</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11352</v>
+        <v>11447</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29580</v>
+        <v>29642</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02801785267476399</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01687173432737368</v>
+        <v>0.01701233629532828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0439630324168275</v>
+        <v>0.04405497160358423</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -3436,19 +3436,19 @@
         <v>35082</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25268</v>
+        <v>24739</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48208</v>
+        <v>48863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0260319440978019</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01875002852625203</v>
+        <v>0.01835765501983856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03577210638116466</v>
+        <v>0.03625810030306498</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>658570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>649694</v>
+        <v>649869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665585</v>
+        <v>665293</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9759481933312814</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9627949023043439</v>
+        <v>0.9630536517698852</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9863436752054958</v>
+        <v>0.9859109566610234</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>648</v>
@@ -3486,19 +3486,19 @@
         <v>653987</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>643259</v>
+        <v>643197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>661487</v>
+        <v>661392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.971982147325236</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9560369675831725</v>
+        <v>0.9559450283964158</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9831282656726263</v>
+        <v>0.9829876637046717</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1283</v>
@@ -3507,19 +3507,19 @@
         <v>1312557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1299431</v>
+        <v>1298776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1322371</v>
+        <v>1322900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9739680559021981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9642278936188354</v>
+        <v>0.963741899696935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9812499714737479</v>
+        <v>0.9816423449801615</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>32928</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23017</v>
+        <v>22843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46373</v>
+        <v>45627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03220607678311099</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02251208003051147</v>
+        <v>0.02234223501719458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04535597144180742</v>
+        <v>0.04462554381449689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3632,19 +3632,19 @@
         <v>23970</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15059</v>
+        <v>15420</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36278</v>
+        <v>36793</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02298397475069918</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01443964524988945</v>
+        <v>0.01478585252753466</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03478493745602435</v>
+        <v>0.03527884740578727</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -3653,19 +3653,19 @@
         <v>56899</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41716</v>
+        <v>42835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76461</v>
+        <v>72699</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02754929798783863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02019795336196998</v>
+        <v>0.02073991237444764</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03702077769277035</v>
+        <v>0.03519927927016952</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>989503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>976058</v>
+        <v>976804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>999414</v>
+        <v>999588</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9677939232168891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9546440285581926</v>
+        <v>0.9553744561855031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9774879199694886</v>
+        <v>0.9776577649828054</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>957</v>
@@ -3703,19 +3703,19 @@
         <v>1018943</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1006635</v>
+        <v>1006120</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1027854</v>
+        <v>1027493</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9770160252493009</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9652150625439766</v>
+        <v>0.9647211525942129</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9855603547501106</v>
+        <v>0.9852141474724654</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1877</v>
@@ -3724,19 +3724,19 @@
         <v>2008445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1988883</v>
+        <v>1992645</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2023628</v>
+        <v>2022509</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9724507020121613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9629792223072291</v>
+        <v>0.9648007207298307</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9798020466380299</v>
+        <v>0.9792600876255524</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>12265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6318</v>
+        <v>6151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20715</v>
+        <v>20493</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01614791566484963</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008318346891783736</v>
+        <v>0.008097645426589778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02727301242228062</v>
+        <v>0.02698099225339898</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3849,19 +3849,19 @@
         <v>10550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5272</v>
+        <v>5197</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18494</v>
+        <v>18745</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01343960034833325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00671630052118245</v>
+        <v>0.006620349921818304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02355922979650581</v>
+        <v>0.02387842287053562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3870,19 +3870,19 @@
         <v>22815</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15293</v>
+        <v>14558</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34437</v>
+        <v>34279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01477143777877963</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009901061227387539</v>
+        <v>0.00942521897252426</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02229562109095984</v>
+        <v>0.02219325693560139</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>747287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>738837</v>
+        <v>739059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753234</v>
+        <v>753401</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9838520843351504</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9727269875777192</v>
+        <v>0.973019007746601</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9916816531082162</v>
+        <v>0.9919023545734102</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>726</v>
@@ -3920,19 +3920,19 @@
         <v>774461</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>766517</v>
+        <v>766266</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>779739</v>
+        <v>779814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9865603996516668</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9764407702034944</v>
+        <v>0.9761215771294643</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9932836994788176</v>
+        <v>0.9933796500781817</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1410</v>
@@ -3941,19 +3941,19 @@
         <v>1521748</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1510126</v>
+        <v>1510284</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1529270</v>
+        <v>1530005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9852285622212203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9777043789090404</v>
+        <v>0.9778067430643986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9900989387726126</v>
+        <v>0.9905747810274758</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>27687</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18761</v>
+        <v>18575</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42052</v>
+        <v>40302</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02953092582377284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02001065880729438</v>
+        <v>0.01981156152714061</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04485275127694544</v>
+        <v>0.04298555694706247</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -4066,19 +4066,19 @@
         <v>34138</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22961</v>
+        <v>23539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47807</v>
+        <v>49815</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03270582280467457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02199824933294309</v>
+        <v>0.02255203592583836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04580162088533729</v>
+        <v>0.04772585079976752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -4087,19 +4087,19 @@
         <v>61825</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47005</v>
+        <v>47614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79631</v>
+        <v>78838</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03120347106136797</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02372384869142419</v>
+        <v>0.02403138133829366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04019024213734389</v>
+        <v>0.03978995459374213</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>909880</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>895515</v>
+        <v>897265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>918806</v>
+        <v>918992</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9704690741762272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9551472487230546</v>
+        <v>0.9570144430529373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9799893411927056</v>
+        <v>0.9801884384728594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>930</v>
@@ -4137,19 +4137,19 @@
         <v>1009641</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>995972</v>
+        <v>993964</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1020818</v>
+        <v>1020240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9672941771953254</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9541983791146628</v>
+        <v>0.9522741492002322</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.978001750667057</v>
+        <v>0.9774479640741617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1835</v>
@@ -4158,19 +4158,19 @@
         <v>1919521</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1901715</v>
+        <v>1902508</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1934341</v>
+        <v>1933732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.968796528938632</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9598097578626563</v>
+        <v>0.9602100454062571</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.976276151308576</v>
+        <v>0.9759686186617061</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>89111</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72014</v>
+        <v>72160</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109583</v>
+        <v>109927</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02625275820042077</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02121575942934481</v>
+        <v>0.02125897502094919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03228404875620152</v>
+        <v>0.03238523520950426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -4283,19 +4283,19 @@
         <v>87510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67544</v>
+        <v>69956</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108903</v>
+        <v>108127</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02468857051486613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01905587293413586</v>
+        <v>0.01973630382407751</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03072424131167454</v>
+        <v>0.03050520321670615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -4304,19 +4304,19 @@
         <v>176621</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>152147</v>
+        <v>151709</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>202730</v>
+        <v>205275</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02545373601180825</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02192673629698776</v>
+        <v>0.0218635767781966</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02921648724135961</v>
+        <v>0.02958326278415803</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3305239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3284767</v>
+        <v>3284423</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3322336</v>
+        <v>3322190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9737472417995793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9677159512437985</v>
+        <v>0.9676147647904958</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9787842405706552</v>
+        <v>0.9787410249790508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3261</v>
@@ -4354,19 +4354,19 @@
         <v>3457032</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3435639</v>
+        <v>3436415</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3476998</v>
+        <v>3474586</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9753114294851338</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9692757586883254</v>
+        <v>0.9694947967832936</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9809441270658641</v>
+        <v>0.9802636961759223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6405</v>
@@ -4375,19 +4375,19 @@
         <v>6762271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6736162</v>
+        <v>6733617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6786745</v>
+        <v>6787183</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9745462639881918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9707835127586403</v>
+        <v>0.970416737215842</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9780732637030122</v>
+        <v>0.9781364232218036</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>18863</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10687</v>
+        <v>10402</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33119</v>
+        <v>33516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02731016926472345</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01547315979331948</v>
+        <v>0.01505937664140886</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04794889501843768</v>
+        <v>0.04852366296242475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -4740,19 +4740,19 @@
         <v>20358</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14648</v>
+        <v>14526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27428</v>
+        <v>27335</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02776886600648624</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01998108789221008</v>
+        <v>0.01981347830058555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03741320934057789</v>
+        <v>0.0372861046733949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -4761,19 +4761,19 @@
         <v>39221</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29914</v>
+        <v>28944</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57979</v>
+        <v>56943</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02754634798121576</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02100986588382224</v>
+        <v>0.02032847259152386</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04072091928802588</v>
+        <v>0.03999307849558311</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>671847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>657591</v>
+        <v>657194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>680023</v>
+        <v>680308</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9726898307352766</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9520511049815623</v>
+        <v>0.9514763370375754</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9845268402066806</v>
+        <v>0.9849406233585913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1195</v>
@@ -4811,19 +4811,19 @@
         <v>712755</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>705685</v>
+        <v>705778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>718465</v>
+        <v>718587</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9722311339935137</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9625867906594225</v>
+        <v>0.9627138953266051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.98001891210779</v>
+        <v>0.9801865216994146</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1906</v>
@@ -4832,19 +4832,19 @@
         <v>1384602</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1365844</v>
+        <v>1366880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1393909</v>
+        <v>1394879</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9724536520187843</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9592790807119743</v>
+        <v>0.9600069215044171</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9789901341161777</v>
+        <v>0.9796715274084761</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>30790</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19777</v>
+        <v>19926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45398</v>
+        <v>47404</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02935427459975359</v>
+        <v>0.02935427459975358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01885494359500075</v>
+        <v>0.01899630741300137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04328036313064777</v>
+        <v>0.04519374643753759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -4957,19 +4957,19 @@
         <v>30368</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21627</v>
+        <v>21298</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45417</v>
+        <v>46523</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02835880613556926</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02019650958945953</v>
+        <v>0.01988922943461675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04241216574701489</v>
+        <v>0.04344499082695726</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -4978,19 +4978,19 @@
         <v>61158</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46556</v>
+        <v>45600</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84078</v>
+        <v>80220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02885139318062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02196290982805249</v>
+        <v>0.02151191188495256</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03966409496174464</v>
+        <v>0.03784390459882792</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1018127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1003519</v>
+        <v>1001513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1029140</v>
+        <v>1028991</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9706457254002465</v>
+        <v>0.9706457254002464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9567196368693521</v>
+        <v>0.9548062535624623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9811450564049992</v>
+        <v>0.9810036925869987</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1476</v>
@@ -5028,19 +5028,19 @@
         <v>1040470</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1025421</v>
+        <v>1024315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1049211</v>
+        <v>1049540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9716411938644308</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9575878342529851</v>
+        <v>0.9565550091730407</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9798034904105403</v>
+        <v>0.9801107705653832</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2412</v>
@@ -5049,19 +5049,19 @@
         <v>2058597</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2035677</v>
+        <v>2039535</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2073199</v>
+        <v>2074155</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9711486068193801</v>
+        <v>0.97114860681938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9603359050382553</v>
+        <v>0.962156095401172</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9780370901719473</v>
+        <v>0.9784880881150473</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>15161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8004</v>
+        <v>7955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26401</v>
+        <v>26166</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01887870487908245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00996643388763036</v>
+        <v>0.009905193490148184</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03287452581924052</v>
+        <v>0.032582140922375</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -5174,19 +5174,19 @@
         <v>22430</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15917</v>
+        <v>16018</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31118</v>
+        <v>31411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02761442117830241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01959572529821912</v>
+        <v>0.01972071817195472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03831051366284693</v>
+        <v>0.03867070038458289</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -5195,19 +5195,19 @@
         <v>37591</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27444</v>
+        <v>27271</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51128</v>
+        <v>50553</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02327140114808836</v>
+        <v>0.02327140114808837</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01698977986731187</v>
+        <v>0.01688238237873843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03165144618504036</v>
+        <v>0.0312960377667898</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>787912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>776672</v>
+        <v>776907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>795069</v>
+        <v>795118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9811212951209175</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9671254741807592</v>
+        <v>0.9674178590776249</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9900335661123696</v>
+        <v>0.9900948065098518</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1013</v>
@@ -5245,19 +5245,19 @@
         <v>789829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>781141</v>
+        <v>780848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>796342</v>
+        <v>796241</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9723855788216975</v>
+        <v>0.9723855788216976</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.961689486337153</v>
+        <v>0.9613292996154165</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.980404274701781</v>
+        <v>0.9802792818280451</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1676</v>
@@ -5266,19 +5266,19 @@
         <v>1577741</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1564204</v>
+        <v>1564779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1587888</v>
+        <v>1588061</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9767285988519117</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9683485538149595</v>
+        <v>0.9687039622332101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9830102201326879</v>
+        <v>0.9831176176212614</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>17528</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10261</v>
+        <v>10731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26602</v>
+        <v>27000</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01770429012322755</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01036411202027197</v>
+        <v>0.01083887976621252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.026868531756288</v>
+        <v>0.02727132063508381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -5391,19 +5391,19 @@
         <v>26283</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18449</v>
+        <v>19576</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34898</v>
+        <v>35701</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02348691156820921</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01648599620022739</v>
+        <v>0.01749359080094126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03118601780527128</v>
+        <v>0.03190321787700773</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -5412,19 +5412,19 @@
         <v>43811</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33324</v>
+        <v>33571</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56606</v>
+        <v>57581</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02077241474131307</v>
+        <v>0.02077241474131308</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01580003610050402</v>
+        <v>0.0159172517922966</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02683908127967237</v>
+        <v>0.02730115251795352</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>972534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>963460</v>
+        <v>963062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>979801</v>
+        <v>979331</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9822957098767724</v>
+        <v>0.9822957098767725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9731314682437119</v>
+        <v>0.9727286793649166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.989635887979728</v>
+        <v>0.9891611202337875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1522</v>
@@ -5462,19 +5462,19 @@
         <v>1092758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1084143</v>
+        <v>1083340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1100592</v>
+        <v>1099465</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9765130884317909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9688139821947287</v>
+        <v>0.9680967821229924</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9835140037997726</v>
+        <v>0.9825064091990587</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2509</v>
@@ -5483,19 +5483,19 @@
         <v>2065293</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2052498</v>
+        <v>2051523</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2075780</v>
+        <v>2075533</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.979227585258687</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9731609187203275</v>
+        <v>0.9726988474820464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9841999638994959</v>
+        <v>0.984082748207703</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>82343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61604</v>
+        <v>65035</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104810</v>
+        <v>105087</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02330837049640188</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01743797422362117</v>
+        <v>0.01840898725901255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0296679988034881</v>
+        <v>0.02974649709758256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -5608,19 +5608,19 @@
         <v>99438</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83136</v>
+        <v>84954</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117843</v>
+        <v>120610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02662157956320406</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0222571242350309</v>
+        <v>0.02274386829547191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03154894734999247</v>
+        <v>0.032289632170013</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>237</v>
@@ -5629,19 +5629,19 @@
         <v>181781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155572</v>
+        <v>156569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>209070</v>
+        <v>211017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02501112860550918</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02140497594285365</v>
+        <v>0.02154216975164238</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02876579193397492</v>
+        <v>0.02903366475764415</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3450419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3427952</v>
+        <v>3427675</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3471158</v>
+        <v>3467727</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9766916295035981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9703320011965118</v>
+        <v>0.9702535029024173</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9825620257763785</v>
+        <v>0.9815910127409874</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5206</v>
@@ -5679,19 +5679,19 @@
         <v>3635813</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3617408</v>
+        <v>3614641</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3652115</v>
+        <v>3650297</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.973378420436796</v>
+        <v>0.9733784204367959</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9684510526500077</v>
+        <v>0.9677103678299867</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9777428757649695</v>
+        <v>0.9772561317045279</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8503</v>
@@ -5700,19 +5700,19 @@
         <v>7086232</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7058943</v>
+        <v>7056996</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7112441</v>
+        <v>7111444</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9749888713944908</v>
+        <v>0.974988871394491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.971234208066025</v>
+        <v>0.9709663352423558</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9785950240571465</v>
+        <v>0.9784578302483575</v>
       </c>
     </row>
     <row r="18">
